--- a/Experimental_MonteCarlo/FinalResultsSet_ForTesting.xlsx
+++ b/Experimental_MonteCarlo/FinalResultsSet_ForTesting.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="6">
   <si>
     <t>NaN</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>N/T</t>
+  </si>
+  <si>
+    <t>Timing FF Opt</t>
   </si>
 </sst>
 </file>
@@ -69,9 +72,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,20 +407,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H28"/>
+  <dimension ref="B2:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="2" spans="2:8">
+    <row r="2" spans="2:16">
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:16">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -438,128 +442,261 @@
       <c r="H4">
         <v>3003</v>
       </c>
-    </row>
-    <row r="5" spans="2:8">
+      <c r="J4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16">
       <c r="B5">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5">
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
         <v>26.898537070561101</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>108.78434103526401</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>18.907348129014199</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <v>39.221339900458403</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <v>65.914165850199197</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:16">
       <c r="B6">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6">
+      <c r="C6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
         <v>98.773705426108407</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>6.3707648848275404</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <v>117.05008033057</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <v>24.626252841741898</v>
       </c>
-    </row>
-    <row r="7" spans="2:8">
+      <c r="J6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>299</v>
+      </c>
+      <c r="L6">
+        <v>1001</v>
+      </c>
+      <c r="M6">
+        <v>1300</v>
+      </c>
+      <c r="N6">
+        <v>2002</v>
+      </c>
+      <c r="O6">
+        <v>2600</v>
+      </c>
+      <c r="P6">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16">
       <c r="B7">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7">
+      <c r="C7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
         <v>0.64824848251446798</v>
       </c>
-      <c r="F7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8">
+      <c r="F7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>6</v>
+      </c>
+      <c r="K7" s="2">
+        <v>6.8844004577072807E-2</v>
+      </c>
+      <c r="L7" s="2">
+        <v>2.4567047622690699</v>
+      </c>
+      <c r="M7" s="2">
+        <v>5.1940547646225497</v>
+      </c>
+      <c r="N7" s="2">
+        <v>18.3623811071792</v>
+      </c>
+      <c r="O7" s="2">
+        <v>39.2224469481501</v>
+      </c>
+      <c r="P7" s="2">
+        <v>65.503728904572498</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16">
       <c r="B8">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8">
+      <c r="C8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+      <c r="K8" s="2">
+        <v>2.2984409617039299E-2</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0.89425497673589704</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1.8560100004900499</v>
+      </c>
+      <c r="N8" s="2">
+        <v>6.4972187890514101</v>
+      </c>
+      <c r="O8" s="2">
+        <v>14.1293011196955</v>
+      </c>
+      <c r="P8" s="2">
+        <v>23.4744392138163</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16">
       <c r="B9">
         <v>30</v>
       </c>
-      <c r="C9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8">
+      <c r="C9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>16</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1.2959330617183599E-2</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.29667914284253599</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0.64825887292419704</v>
+      </c>
+      <c r="N9" s="2">
+        <v>2.53122743190902</v>
+      </c>
+      <c r="O9" s="2">
+        <v>5.8057985570274999</v>
+      </c>
+      <c r="P9" s="2">
+        <v>7.7654176196377103</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16">
+      <c r="J10">
+        <v>24</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0.144240782662341</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0.304849941536459</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0.96538679539787897</v>
+      </c>
+      <c r="O10" s="2">
+        <v>2.2382965197528599</v>
+      </c>
+      <c r="P10" s="2">
+        <v>3.9193955853269502</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16">
+      <c r="J11">
+        <v>30</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>9.4673620731504898E-2</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0.31329852441772499</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0.93678091576703104</v>
+      </c>
+      <c r="O11" s="2">
+        <v>1.6726286926109999</v>
+      </c>
+      <c r="P11" s="2">
+        <v>2.1655178847503</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16">
       <c r="B12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:8">
+    <row r="14" spans="2:16">
       <c r="B14" t="s">
         <v>4</v>
       </c>
@@ -581,128 +718,254 @@
       <c r="H14">
         <v>3003</v>
       </c>
-    </row>
-    <row r="15" spans="2:8">
+      <c r="J14" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <v>299</v>
+      </c>
+      <c r="L14">
+        <v>1001</v>
+      </c>
+      <c r="M14">
+        <v>1300</v>
+      </c>
+      <c r="N14">
+        <v>2002</v>
+      </c>
+      <c r="O14">
+        <v>2600</v>
+      </c>
+      <c r="P14">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16">
       <c r="B15">
         <v>6</v>
       </c>
-      <c r="C15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15">
+      <c r="C15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
         <v>0.84141619746130702</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>1.4929157518635601</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <v>1.4226266687634701</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="2">
         <v>1.35301543988232</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="2">
         <v>0.70357604995331702</v>
       </c>
-    </row>
-    <row r="16" spans="2:8">
+      <c r="J15">
+        <v>6</v>
+      </c>
+      <c r="K15" s="2">
+        <v>6.1461456387279803E-2</v>
+      </c>
+      <c r="L15" s="2">
+        <v>2.4192596346706901</v>
+      </c>
+      <c r="M15" s="2">
+        <v>5.3540216138696497</v>
+      </c>
+      <c r="N15" s="2">
+        <v>18.298326812670101</v>
+      </c>
+      <c r="O15" s="2">
+        <v>40.527976121048503</v>
+      </c>
+      <c r="P15" s="2">
+        <v>65.632254001010907</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16">
       <c r="B16">
         <v>10</v>
       </c>
-      <c r="C16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16">
+      <c r="C16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
         <v>1.0520559731037</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <v>1.0860447520807399</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="2">
         <v>0.88700850375395102</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="2">
         <v>0.77439199883728704</v>
       </c>
-    </row>
-    <row r="17" spans="2:8">
+      <c r="J16">
+        <v>10</v>
+      </c>
+      <c r="K16" s="2">
+        <v>2.1573449584906802E-2</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0.87034350242359704</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1.93594103616836</v>
+      </c>
+      <c r="N16" s="2">
+        <v>6.3947889343008697</v>
+      </c>
+      <c r="O16" s="2">
+        <v>14.247248301361701</v>
+      </c>
+      <c r="P16" s="2">
+        <v>23.667434810062002</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16">
       <c r="B17">
         <v>16</v>
       </c>
-      <c r="C17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17">
+      <c r="C17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
         <v>0.99841179444135197</v>
       </c>
-      <c r="F17" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8">
+      <c r="F17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>16</v>
+      </c>
+      <c r="K17" s="2">
+        <v>8.6398986972044001E-3</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0.28341144120900902</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0.63683093213556696</v>
+      </c>
+      <c r="N17" s="2">
+        <v>2.5502083127560602</v>
+      </c>
+      <c r="O17" s="2">
+        <v>5.7141293951010299</v>
+      </c>
+      <c r="P17" s="2">
+        <v>7.7432867801774004</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16">
       <c r="B18">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H18" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8">
+      <c r="C18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>24</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0.14230418429264799</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0.320691136390229</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0.96547825075250004</v>
+      </c>
+      <c r="O18" s="2">
+        <v>2.1874898591337799</v>
+      </c>
+      <c r="P18" s="2">
+        <v>3.8934382559373102</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16">
       <c r="B19">
         <v>30</v>
       </c>
-      <c r="C19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G19" t="s">
-        <v>0</v>
-      </c>
-      <c r="H19" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8">
+      <c r="C19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>30</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2">
+        <v>7.7638293051968496E-2</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0.17665741172466001</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0.73661905865147204</v>
+      </c>
+      <c r="O19" s="2">
+        <v>1.6647575168217099</v>
+      </c>
+      <c r="P19" s="2">
+        <v>2.1337437104149402</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16">
       <c r="B21" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:16">
       <c r="B23" t="s">
         <v>4</v>
       </c>
@@ -725,118 +988,118 @@
         <v>3003</v>
       </c>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="2:16">
       <c r="B24">
         <v>6</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D24" s="1">
         <v>9.4880248509340899E-5</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="1">
         <v>2.7844626866297399E-4</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="1">
         <v>1.27966525692894E-4</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="1">
         <v>2.7298368071913901E-4</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="1">
         <v>1.5284592297608399E-4</v>
       </c>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="2:16">
       <c r="B25">
         <v>10</v>
       </c>
-      <c r="C25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25">
+      <c r="C25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
         <v>1.43605004032708E-4</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="1">
         <v>2.47277994208775E-4</v>
       </c>
       <c r="G25" s="1">
         <v>9.5753497342758397E-5</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="1">
         <v>4.2991243362201098E-4</v>
       </c>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="2:16">
       <c r="B26">
         <v>16</v>
       </c>
-      <c r="C26" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26">
+      <c r="C26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
         <v>3.3079756454485799E-4</v>
       </c>
-      <c r="F26" t="s">
-        <v>0</v>
-      </c>
-      <c r="G26" t="s">
-        <v>0</v>
-      </c>
-      <c r="H26" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8">
+      <c r="F26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16">
       <c r="B27">
         <v>24</v>
       </c>
-      <c r="C27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" t="s">
-        <v>0</v>
-      </c>
-      <c r="F27" t="s">
-        <v>0</v>
-      </c>
-      <c r="G27" t="s">
-        <v>0</v>
-      </c>
-      <c r="H27" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8">
+      <c r="C27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16">
       <c r="B28">
         <v>30</v>
       </c>
-      <c r="C28" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" t="s">
-        <v>0</v>
-      </c>
-      <c r="F28" t="s">
-        <v>0</v>
-      </c>
-      <c r="G28" t="s">
-        <v>0</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="C28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>0</v>
       </c>
     </row>
